--- a/data/processed/basaltic_glasses/calczaf_files/D2893/detlim/calczaf_outputs.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/D2893/detlim/calczaf_outputs.xlsx
@@ -490,79 +490,79 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>0.015</v>
+      </c>
+      <c r="C2">
+        <v>0.017</v>
+      </c>
+      <c r="D2">
+        <v>0.017</v>
+      </c>
+      <c r="E2">
+        <v>0.021</v>
+      </c>
+      <c r="F2">
         <v>0.014</v>
       </c>
-      <c r="C2">
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.014</v>
+      </c>
+      <c r="I2">
+        <v>0.018</v>
+      </c>
+      <c r="J2">
         <v>0.016</v>
       </c>
-      <c r="D2">
-        <v>0.016</v>
-      </c>
-      <c r="E2">
-        <v>0.018</v>
-      </c>
-      <c r="F2">
-        <v>0.012</v>
-      </c>
-      <c r="G2">
-        <v>0.026</v>
-      </c>
-      <c r="H2">
-        <v>0.013</v>
-      </c>
-      <c r="I2">
-        <v>0.016</v>
-      </c>
-      <c r="J2">
-        <v>0.017</v>
-      </c>
       <c r="K2">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="L2">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="M2">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="N2">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O2">
         <v>0.013</v>
       </c>
       <c r="P2">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="Q2">
+        <v>0.015</v>
+      </c>
+      <c r="R2">
+        <v>0.029</v>
+      </c>
+      <c r="S2">
+        <v>0.033</v>
+      </c>
+      <c r="T2">
+        <v>0.026</v>
+      </c>
+      <c r="U2">
+        <v>0.027</v>
+      </c>
+      <c r="V2">
+        <v>0.029</v>
+      </c>
+      <c r="W2">
+        <v>0.019</v>
+      </c>
+      <c r="X2">
+        <v>0.007</v>
+      </c>
+      <c r="Y2">
         <v>0.013</v>
       </c>
-      <c r="R2">
-        <v>0.028</v>
-      </c>
-      <c r="S2">
-        <v>0.029</v>
-      </c>
-      <c r="T2">
-        <v>0.024</v>
-      </c>
-      <c r="U2">
-        <v>0.026</v>
-      </c>
-      <c r="V2">
-        <v>0.026</v>
-      </c>
-      <c r="W2">
-        <v>0.018</v>
-      </c>
-      <c r="X2">
-        <v>0.006</v>
-      </c>
-      <c r="Y2">
-        <v>0.012</v>
-      </c>
       <c r="Z2">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -650,79 +650,79 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>0.015</v>
+      </c>
+      <c r="C5">
+        <v>0.017</v>
+      </c>
+      <c r="D5">
+        <v>0.017</v>
+      </c>
+      <c r="E5">
+        <v>0.021</v>
+      </c>
+      <c r="F5">
         <v>0.014</v>
       </c>
-      <c r="C5">
+      <c r="G5">
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <v>0.014</v>
+      </c>
+      <c r="I5">
+        <v>0.018</v>
+      </c>
+      <c r="J5">
         <v>0.016</v>
       </c>
-      <c r="D5">
-        <v>0.016</v>
-      </c>
-      <c r="E5">
-        <v>0.018</v>
-      </c>
-      <c r="F5">
-        <v>0.012</v>
-      </c>
-      <c r="G5">
-        <v>0.026</v>
-      </c>
-      <c r="H5">
-        <v>0.013</v>
-      </c>
-      <c r="I5">
-        <v>0.016</v>
-      </c>
-      <c r="J5">
-        <v>0.017</v>
-      </c>
       <c r="K5">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="L5">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="M5">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="N5">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O5">
         <v>0.013</v>
       </c>
       <c r="P5">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="Q5">
+        <v>0.015</v>
+      </c>
+      <c r="R5">
+        <v>0.029</v>
+      </c>
+      <c r="S5">
+        <v>0.033</v>
+      </c>
+      <c r="T5">
+        <v>0.026</v>
+      </c>
+      <c r="U5">
+        <v>0.027</v>
+      </c>
+      <c r="V5">
+        <v>0.029</v>
+      </c>
+      <c r="W5">
+        <v>0.019</v>
+      </c>
+      <c r="X5">
+        <v>0.007</v>
+      </c>
+      <c r="Y5">
         <v>0.013</v>
       </c>
-      <c r="R5">
-        <v>0.028</v>
-      </c>
-      <c r="S5">
-        <v>0.029</v>
-      </c>
-      <c r="T5">
-        <v>0.024</v>
-      </c>
-      <c r="U5">
-        <v>0.026</v>
-      </c>
-      <c r="V5">
-        <v>0.026</v>
-      </c>
-      <c r="W5">
-        <v>0.018</v>
-      </c>
-      <c r="X5">
-        <v>0.006</v>
-      </c>
-      <c r="Y5">
-        <v>0.012</v>
-      </c>
       <c r="Z5">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -810,79 +810,79 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>0.022</v>
+      </c>
+      <c r="C8">
+        <v>0.025</v>
+      </c>
+      <c r="D8">
+        <v>0.024</v>
+      </c>
+      <c r="E8">
+        <v>0.031</v>
+      </c>
+      <c r="F8">
         <v>0.02</v>
       </c>
-      <c r="C8">
-        <v>0.023</v>
-      </c>
-      <c r="D8">
-        <v>0.023</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>0.043</v>
+      </c>
+      <c r="H8">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
         <v>0.026</v>
       </c>
-      <c r="F8">
-        <v>0.018</v>
-      </c>
-      <c r="G8">
-        <v>0.037</v>
-      </c>
-      <c r="H8">
-        <v>0.019</v>
-      </c>
-      <c r="I8">
-        <v>0.023</v>
-      </c>
       <c r="J8">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K8">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="L8">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="M8">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="N8">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="O8">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="P8">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="Q8">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="R8">
         <v>0.041</v>
       </c>
       <c r="S8">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="T8">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="U8">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="V8">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="W8">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="X8">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="Y8">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="Z8">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
@@ -986,79 +986,79 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>0.018</v>
+      </c>
+      <c r="C2">
+        <v>0.021</v>
+      </c>
+      <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
+        <v>0.026</v>
+      </c>
+      <c r="F2">
+        <v>0.016</v>
+      </c>
+      <c r="G2">
+        <v>0.036</v>
+      </c>
+      <c r="H2">
         <v>0.017</v>
       </c>
-      <c r="C2">
+      <c r="I2">
+        <v>0.022</v>
+      </c>
+      <c r="J2">
         <v>0.02</v>
       </c>
-      <c r="D2">
-        <v>0.019</v>
-      </c>
-      <c r="E2">
-        <v>0.022</v>
-      </c>
-      <c r="F2">
-        <v>0.015</v>
-      </c>
-      <c r="G2">
-        <v>0.031</v>
-      </c>
-      <c r="H2">
-        <v>0.016</v>
-      </c>
-      <c r="I2">
-        <v>0.019</v>
-      </c>
-      <c r="J2">
-        <v>0.021</v>
-      </c>
       <c r="K2">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L2">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="M2">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="N2">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="O2">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="P2">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="Q2">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="R2">
         <v>0.034</v>
       </c>
       <c r="S2">
+        <v>0.04</v>
+      </c>
+      <c r="T2">
+        <v>0.032</v>
+      </c>
+      <c r="U2">
+        <v>0.033</v>
+      </c>
+      <c r="V2">
         <v>0.035</v>
       </c>
-      <c r="T2">
-        <v>0.029</v>
-      </c>
-      <c r="U2">
-        <v>0.031</v>
-      </c>
-      <c r="V2">
-        <v>0.031</v>
-      </c>
       <c r="W2">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="X2">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="Y2">
         <v>0.015</v>
       </c>
       <c r="Z2">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1146,79 +1146,79 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>0.018</v>
+      </c>
+      <c r="C5">
+        <v>0.021</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0.026</v>
+      </c>
+      <c r="F5">
+        <v>0.016</v>
+      </c>
+      <c r="G5">
+        <v>0.036</v>
+      </c>
+      <c r="H5">
         <v>0.017</v>
       </c>
-      <c r="C5">
+      <c r="I5">
+        <v>0.022</v>
+      </c>
+      <c r="J5">
         <v>0.02</v>
       </c>
-      <c r="D5">
-        <v>0.019</v>
-      </c>
-      <c r="E5">
-        <v>0.022</v>
-      </c>
-      <c r="F5">
-        <v>0.015</v>
-      </c>
-      <c r="G5">
-        <v>0.031</v>
-      </c>
-      <c r="H5">
-        <v>0.016</v>
-      </c>
-      <c r="I5">
-        <v>0.019</v>
-      </c>
-      <c r="J5">
-        <v>0.021</v>
-      </c>
       <c r="K5">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L5">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="M5">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="N5">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="O5">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="P5">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="Q5">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="R5">
         <v>0.034</v>
       </c>
       <c r="S5">
+        <v>0.04</v>
+      </c>
+      <c r="T5">
+        <v>0.032</v>
+      </c>
+      <c r="U5">
+        <v>0.033</v>
+      </c>
+      <c r="V5">
         <v>0.035</v>
       </c>
-      <c r="T5">
-        <v>0.029</v>
-      </c>
-      <c r="U5">
-        <v>0.031</v>
-      </c>
-      <c r="V5">
-        <v>0.031</v>
-      </c>
       <c r="W5">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="X5">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="Y5">
         <v>0.015</v>
       </c>
       <c r="Z5">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1306,79 +1306,79 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>0.026</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0.029</v>
+      </c>
+      <c r="E8">
+        <v>0.037</v>
+      </c>
+      <c r="F8">
         <v>0.024</v>
       </c>
-      <c r="C8">
+      <c r="G8">
+        <v>0.052</v>
+      </c>
+      <c r="H8">
+        <v>0.024</v>
+      </c>
+      <c r="I8">
+        <v>0.032</v>
+      </c>
+      <c r="J8">
         <v>0.028</v>
       </c>
-      <c r="D8">
-        <v>0.027</v>
-      </c>
-      <c r="E8">
-        <v>0.031</v>
-      </c>
-      <c r="F8">
-        <v>0.021</v>
-      </c>
-      <c r="G8">
-        <v>0.045</v>
-      </c>
-      <c r="H8">
-        <v>0.023</v>
-      </c>
-      <c r="I8">
-        <v>0.028</v>
-      </c>
-      <c r="J8">
-        <v>0.03</v>
-      </c>
       <c r="K8">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="L8">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="M8">
+        <v>0.026</v>
+      </c>
+      <c r="N8">
+        <v>0.026</v>
+      </c>
+      <c r="O8">
         <v>0.022</v>
       </c>
-      <c r="N8">
-        <v>0.023</v>
-      </c>
-      <c r="O8">
-        <v>0.023</v>
-      </c>
       <c r="P8">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="Q8">
+        <v>0.025</v>
+      </c>
+      <c r="R8">
+        <v>0.05</v>
+      </c>
+      <c r="S8">
+        <v>0.057</v>
+      </c>
+      <c r="T8">
+        <v>0.046</v>
+      </c>
+      <c r="U8">
+        <v>0.047</v>
+      </c>
+      <c r="V8">
+        <v>0.051</v>
+      </c>
+      <c r="W8">
+        <v>0.034</v>
+      </c>
+      <c r="X8">
+        <v>0.011</v>
+      </c>
+      <c r="Y8">
         <v>0.022</v>
       </c>
-      <c r="R8">
-        <v>0.049</v>
-      </c>
-      <c r="S8">
-        <v>0.05</v>
-      </c>
-      <c r="T8">
-        <v>0.042</v>
-      </c>
-      <c r="U8">
-        <v>0.045</v>
-      </c>
-      <c r="V8">
-        <v>0.044</v>
-      </c>
-      <c r="W8">
-        <v>0.031</v>
-      </c>
-      <c r="X8">
-        <v>0.01</v>
-      </c>
-      <c r="Y8">
-        <v>0.021</v>
-      </c>
       <c r="Z8">
-        <v>0.05</v>
+        <v>0.057</v>
       </c>
     </row>
   </sheetData>
